--- a/docs/StructureDefinition-valueReference.xlsx
+++ b/docs/StructureDefinition-valueReference.xlsx
@@ -247,7 +247,7 @@
     <t>valueString</t>
   </si>
   <si>
-    <t>Pharmacy Patient @ENTRY BY 55.01-135</t>
+    <t>TEAM FILE @TEAM PHONE NUMBER 404.51-.02</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="38.6484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="44.2265625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
